--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,41 +1,305 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/SOMULCI/Dev/nodejs/write-excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB01D113-51E0-1F4B-8E7F-258CDDE09736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Dateofbirth</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>88F7B33d2bcf9f5</t>
+  </si>
+  <si>
+    <t>Shelby</t>
+  </si>
+  <si>
+    <t>Terrell</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>elijah57@example.net</t>
+  </si>
+  <si>
+    <t>001-084-906-7849x73518</t>
+  </si>
+  <si>
+    <t>1945-10-26</t>
+  </si>
+  <si>
+    <t>Games developer</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>f90cD3E76f1A9b9</t>
+  </si>
+  <si>
+    <t>Phillip</t>
+  </si>
+  <si>
+    <t>Summers</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>bethany14@example.com</t>
+  </si>
+  <si>
+    <t>214.112.6044x4913</t>
+  </si>
+  <si>
+    <t>1910-03-24</t>
+  </si>
+  <si>
+    <t>Phytotherapist</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DbeAb8CcdfeFC2c</t>
+  </si>
+  <si>
+    <t>Kristine</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>bthompson@example.com</t>
+  </si>
+  <si>
+    <t>277.609.7938</t>
+  </si>
+  <si>
+    <t>1992-07-02</t>
+  </si>
+  <si>
+    <t>Homeopath</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>A31Bee3c201ef58</t>
+  </si>
+  <si>
+    <t>Yesenia</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>kaitlinkaiser@example.com</t>
+  </si>
+  <si>
+    <t>584.094.6111</t>
+  </si>
+  <si>
+    <t>2017-08-03</t>
+  </si>
+  <si>
+    <t>Market researcher</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1bA7A3dc874da3c</t>
+  </si>
+  <si>
+    <t>Lori</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
+    <t>buchananmanuel@example.net</t>
+  </si>
+  <si>
+    <t>689-207-3558x7233</t>
+  </si>
+  <si>
+    <t>1938-12-01</t>
+  </si>
+  <si>
+    <t>Veterinary surgeon</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>bfDD7CDEF5D865B</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>tconner@example.org</t>
+  </si>
+  <si>
+    <t>001-171-649-9856x5553</t>
+  </si>
+  <si>
+    <t>2015-10-28</t>
+  </si>
+  <si>
+    <t>Waste management officer</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>bE9EEf34cB72AF7</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>Buck</t>
+  </si>
+  <si>
+    <t>conniecowan@example.com</t>
+  </si>
+  <si>
+    <t>+1-773-151-6685x49162</t>
+  </si>
+  <si>
+    <t>1989-01-22</t>
+  </si>
+  <si>
+    <t>Intelligence analyst</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2EFC6A4e77FaEaC</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Hinton</t>
+  </si>
+  <si>
+    <t>wyattbishop@example.com</t>
+  </si>
+  <si>
+    <t>001-447-699-7998x88612</t>
+  </si>
+  <si>
+    <t>1924-03-26</t>
+  </si>
+  <si>
+    <t>Hydrogeologist</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>baDcC4DeefD8dEB</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Farrell</t>
+  </si>
+  <si>
+    <t>nmccann@example.net</t>
+  </si>
+  <si>
+    <t>603-428-2429x27392</t>
+  </si>
+  <si>
+    <t>2018-10-06</t>
+  </si>
+  <si>
+    <t>Lawyer</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8e4FB470FE19bF0</t>
+  </si>
+  <si>
+    <t>Isaiah</t>
+  </si>
+  <si>
+    <t>Downs</t>
+  </si>
+  <si>
+    <t>virginiaterrell@example.org</t>
+  </si>
+  <si>
+    <t>+1-511-372-1544x8206</t>
+  </si>
+  <si>
+    <t>1964-09-20</t>
+  </si>
+  <si>
+    <t>Engineer, site</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -52,7 +316,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,18 +324,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,334 +684,345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Index</v>
-      </c>
-      <c r="B1" t="str">
-        <v>UserId</v>
-      </c>
-      <c r="C1" t="str">
-        <v>FirstName</v>
-      </c>
-      <c r="D1" t="str">
-        <v>LastName</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Sex</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Email</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Phone</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Dateofbirth</v>
-      </c>
-      <c r="I1" t="str">
-        <v>JobTitle</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>88F7B33d2bcf9f5</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Shelby</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Terrell</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Male</v>
-      </c>
-      <c r="F2" t="str">
-        <v>elijah57@example.net</v>
-      </c>
-      <c r="G2" t="str">
-        <v>001-084-906-7849x73518</v>
-      </c>
-      <c r="H2" t="str">
-        <v>1945-10-26</v>
-      </c>
-      <c r="I2" t="str">
-        <v>Games developer</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>f90cD3E76f1A9b9</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Phillip</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Summers</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Female</v>
-      </c>
-      <c r="F3" t="str">
-        <v>bethany14@example.com</v>
-      </c>
-      <c r="G3" t="str">
-        <v>214.112.6044x4913</v>
-      </c>
-      <c r="H3" t="str">
-        <v>1910-03-24</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Phytotherapist</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>DbeAb8CcdfeFC2c</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Kristine</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Travis</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Male</v>
-      </c>
-      <c r="F4" t="str">
-        <v>bthompson@example.com</v>
-      </c>
-      <c r="G4" t="str">
-        <v>277.609.7938</v>
-      </c>
-      <c r="H4" t="str">
-        <v>1992-07-02</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Homeopath</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>A31Bee3c201ef58</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Yesenia</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Martinez</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Male</v>
-      </c>
-      <c r="F5" t="str">
-        <v>kaitlinkaiser@example.com</v>
-      </c>
-      <c r="G5" t="str">
-        <v>584.094.6111</v>
-      </c>
-      <c r="H5" t="str">
-        <v>2017-08-03</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Market researcher</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>1bA7A3dc874da3c</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Lori</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Todd</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Male</v>
-      </c>
-      <c r="F6" t="str">
-        <v>buchananmanuel@example.net</v>
-      </c>
-      <c r="G6" t="str">
-        <v>689-207-3558x7233</v>
-      </c>
-      <c r="H6" t="str">
-        <v>1938-12-01</v>
-      </c>
-      <c r="I6" t="str">
-        <v>Veterinary surgeon</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <v>bfDD7CDEF5D865B</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Erin</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Day</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Male</v>
-      </c>
-      <c r="F7" t="str">
-        <v>tconner@example.org</v>
-      </c>
-      <c r="G7" t="str">
-        <v>001-171-649-9856x5553</v>
-      </c>
-      <c r="H7" t="str">
-        <v>2015-10-28</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Waste management officer</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>7</v>
-      </c>
-      <c r="B8" t="str">
-        <v>bE9EEf34cB72AF7</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Katherine</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Buck</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Female</v>
-      </c>
-      <c r="F8" t="str">
-        <v>conniecowan@example.com</v>
-      </c>
-      <c r="G8" t="str">
-        <v>+1-773-151-6685x49162</v>
-      </c>
-      <c r="H8" t="str">
-        <v>1989-01-22</v>
-      </c>
-      <c r="I8" t="str">
-        <v>Intelligence analyst</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
-        <v>2EFC6A4e77FaEaC</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Ricardo</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Hinton</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Male</v>
-      </c>
-      <c r="F9" t="str">
-        <v>wyattbishop@example.com</v>
-      </c>
-      <c r="G9" t="str">
-        <v>001-447-699-7998x88612</v>
-      </c>
-      <c r="H9" t="str">
-        <v>1924-03-26</v>
-      </c>
-      <c r="I9" t="str">
-        <v>Hydrogeologist</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
-        <v>baDcC4DeefD8dEB</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Dave</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Farrell</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Male</v>
-      </c>
-      <c r="F10" t="str">
-        <v>nmccann@example.net</v>
-      </c>
-      <c r="G10" t="str">
-        <v>603-428-2429x27392</v>
-      </c>
-      <c r="H10" t="str">
-        <v>2018-10-06</v>
-      </c>
-      <c r="I10" t="str">
-        <v>Lawyer</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
-        <v>8e4FB470FE19bF0</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Isaiah</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Downs</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Male</v>
-      </c>
-      <c r="F11" t="str">
-        <v>virginiaterrell@example.org</v>
-      </c>
-      <c r="G11" t="str">
-        <v>+1-511-372-1544x8206</v>
-      </c>
-      <c r="H11" t="str">
-        <v>1964-09-20</v>
-      </c>
-      <c r="I11" t="str">
-        <v>Engineer, site</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I11"/>
+    <ignoredError sqref="A2:I11 A1:G1 I1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>